--- a/North_Valley/morphology/data/north_valley_morphology_data.xlsx
+++ b/North_Valley/morphology/data/north_valley_morphology_data.xlsx
@@ -710,10 +710,10 @@
   <dimension ref="A1:AW36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="A1:AW36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/North_Valley/morphology/data/north_valley_morphology_data.xlsx
+++ b/North_Valley/morphology/data/north_valley_morphology_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="97">
   <si>
     <t>Name</t>
   </si>
@@ -189,9 +189,6 @@
     <t>2001</t>
   </si>
   <si>
-    <t>NV_left_slope</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
@@ -228,15 +225,9 @@
     <t>2010</t>
   </si>
   <si>
-    <t>NV_moraine</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
-    <t>NV_right_slope</t>
-  </si>
-  <si>
     <t>2012</t>
   </si>
   <si>
@@ -267,33 +258,9 @@
     <t>2018</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Mix</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
     <t>277,4</t>
   </si>
   <si>
@@ -334,6 +301,15 @@
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>left_slope</t>
+  </si>
+  <si>
+    <t>right_slope</t>
+  </si>
+  <si>
+    <t>moraine</t>
   </si>
 </sst>
 </file>
@@ -343,12 +319,20 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,20 +396,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -707,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW36"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="A1:AW36"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,8 +1009,8 @@
       <c r="C3" s="5">
         <v>43.228030000384251</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E3" s="5">
         <v>4.1040000000000001</v>
@@ -1128,7 +1113,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5">
         <v>42.484621000059178</v>
@@ -1136,8 +1121,8 @@
       <c r="C4" s="5">
         <v>43.227588999832513</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
+      <c r="D4" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E4" s="5">
         <v>0.05</v>
@@ -1240,7 +1225,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5">
         <v>42.482531999951902</v>
@@ -1248,8 +1233,8 @@
       <c r="C5" s="5">
         <v>43.228735999666704</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
+      <c r="D5" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E5" s="5">
         <v>1.07</v>
@@ -1352,7 +1337,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5">
         <v>42.480811999774012</v>
@@ -1360,8 +1345,8 @@
       <c r="C6" s="5">
         <v>43.229299000448577</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
+      <c r="D6" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E6" s="5">
         <v>0.95</v>
@@ -1370,7 +1355,7 @@
         <v>54.64</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="5">
         <v>0.8</v>
@@ -1468,7 +1453,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5">
         <v>42.480762000166237</v>
@@ -1476,8 +1461,8 @@
       <c r="C7" s="5">
         <v>43.229126999711298</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>56</v>
+      <c r="D7" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E7" s="5">
         <v>3.26</v>
@@ -1578,7 +1563,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5">
         <v>42.479376000102377</v>
@@ -1586,8 +1571,8 @@
       <c r="C8" s="5">
         <v>43.229760000123967</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
+      <c r="D8" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E8" s="5">
         <v>0.24</v>
@@ -1596,7 +1581,7 @@
         <v>138.05000000000001</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1682,7 +1667,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5">
         <v>42.477304999925877</v>
@@ -1690,8 +1675,8 @@
       <c r="C9" s="5">
         <v>43.230735000120212</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>56</v>
+      <c r="D9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="5">
         <v>4.62</v>
@@ -1800,7 +1785,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5">
         <v>42.476786000273762</v>
@@ -1808,8 +1793,8 @@
       <c r="C10" s="5">
         <v>43.231610000001517</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
+      <c r="D10" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E10" s="5">
         <v>14.27</v>
@@ -1818,7 +1803,7 @@
         <v>104.97</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1914,7 +1899,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5">
         <v>42.474755000143212</v>
@@ -1922,8 +1907,8 @@
       <c r="C11" s="5">
         <v>43.232109999676823</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>56</v>
+      <c r="D11" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E11" s="5">
         <v>8.3000000000000004E-2</v>
@@ -2022,7 +2007,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5">
         <v>42.470527000320892</v>
@@ -2030,8 +2015,8 @@
       <c r="C12" s="5">
         <v>43.233797000131517</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
+      <c r="D12" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E12" s="5">
         <v>1.26</v>
@@ -2134,7 +2119,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5">
         <v>42.477310000156422</v>
@@ -2142,8 +2127,8 @@
       <c r="C13" s="5">
         <v>43.229892999962033</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>71</v>
+      <c r="D13" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="E13" s="5">
         <v>0.37</v>
@@ -2238,7 +2223,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5">
         <v>42.478300999991227</v>
@@ -2247,7 +2232,7 @@
         <v>43.229780000146953</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E14" s="5">
         <v>0.125</v>
@@ -2360,7 +2345,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5">
         <v>42.479828000262053</v>
@@ -2369,7 +2354,7 @@
         <v>43.229155000103219</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E15" s="5">
         <v>0.26</v>
@@ -2378,7 +2363,7 @@
         <v>74.105000000000004</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="5">
         <v>0.4</v>
@@ -2478,7 +2463,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5">
         <v>42.482537000182447</v>
@@ -2487,7 +2472,7 @@
         <v>43.228182000199183</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E16" s="5">
         <v>0.23</v>
@@ -2584,7 +2569,7 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5">
         <v>42.485105309262678</v>
@@ -2593,7 +2578,7 @@
         <v>43.227299262550957</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E17" s="5">
         <v>0.05</v>
@@ -2602,7 +2587,7 @@
         <v>11.28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -2692,7 +2677,7 @@
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5">
         <v>42.485508999640672</v>
@@ -2701,7 +2686,7 @@
         <v>43.226531999652138</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E18" s="5">
         <v>1.02</v>
@@ -2710,7 +2695,7 @@
         <v>44.84</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H18" s="5">
         <v>2.65</v>
@@ -2800,7 +2785,7 @@
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5">
         <v>42.480339000444587</v>
@@ -2809,7 +2794,7 @@
         <v>43.229045000426481</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E19" s="5">
         <v>20.54</v>
@@ -2910,7 +2895,7 @@
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5">
         <v>42.479266000425639</v>
@@ -2919,7 +2904,7 @@
         <v>43.229580999963218</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="E20" s="5">
         <v>1.03</v>
@@ -3026,7 +3011,7 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>42.483277000000001</v>
@@ -3034,21 +3019,21 @@
       <c r="C21">
         <v>43.230452999999898</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>56</v>
+      <c r="D21" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
         <v>9.2799999999999994</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7">
         <v>3.1</v>
@@ -3129,7 +3114,7 @@
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>42.477272999999897</v>
@@ -3137,8 +3122,8 @@
       <c r="C22">
         <v>43.231789999999897</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
+      <c r="D22" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E22" s="7">
         <v>0.12</v>
@@ -3151,7 +3136,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J22" s="7">
         <v>1.41</v>
@@ -3246,7 +3231,7 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B23">
         <v>42.475268999999898</v>
@@ -3254,8 +3239,8 @@
       <c r="C23">
         <v>43.232179000000002</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>56</v>
+      <c r="D23" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E23" s="7">
         <v>1.34</v>
@@ -3267,7 +3252,7 @@
         <v>246.2</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I23" s="7">
         <v>7.0000000000000007E-2</v>
@@ -3355,7 +3340,7 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B24">
         <v>42.474556</v>
@@ -3363,8 +3348,8 @@
       <c r="C24">
         <v>43.232371999999899</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
+      <c r="D24" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E24" s="7">
         <v>0.96</v>
@@ -3384,7 +3369,7 @@
         <v>1.88</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>0.23</v>
@@ -3458,7 +3443,7 @@
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>42.464446000000002</v>
@@ -3466,8 +3451,8 @@
       <c r="C25">
         <v>43.237523000000003</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>69</v>
+      <c r="D25" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="7">
         <v>0.64</v>
@@ -3567,7 +3552,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B26">
         <v>42.464852999999898</v>
@@ -3575,8 +3560,8 @@
       <c r="C26">
         <v>43.236863</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>69</v>
+      <c r="D26" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E26" s="7">
         <v>0.92</v>
@@ -3615,7 +3600,7 @@
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="T26" s="7">
         <v>1.4</v>
@@ -3674,7 +3659,7 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>42.467249000000002</v>
@@ -3682,8 +3667,8 @@
       <c r="C27">
         <v>43.235874000000003</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>69</v>
+      <c r="D27" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="E27" s="7">
         <v>0.78</v>
@@ -3723,7 +3708,7 @@
         <v>1.3</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="U27" s="7">
         <v>0.03</v>
@@ -3785,7 +3770,7 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>42.468364999999899</v>
@@ -3793,8 +3778,8 @@
       <c r="C28">
         <v>43.233657999999899</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>71</v>
+      <c r="D28" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="E28" s="7">
         <v>1.65</v>
@@ -3809,7 +3794,7 @@
         <v>0.02</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7">
@@ -3900,7 +3885,7 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B29">
         <v>42.471519000000001</v>
@@ -3908,8 +3893,8 @@
       <c r="C29">
         <v>43.232047000000001</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>71</v>
+      <c r="D29" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="E29" s="7">
         <v>0.2</v>
@@ -4010,66 +3995,60 @@
       <c r="AW29" s="5"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>82</v>
+      <c r="A30" s="5">
+        <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>42.494017999930797</v>
+        <v>42.489663</v>
       </c>
       <c r="C30" s="5">
-        <v>43.221466999902191</v>
+        <v>43.224527000000002</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10.039999999999999</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <v>108.36</v>
+        <v>5.03</v>
       </c>
       <c r="G30" s="5">
-        <v>372.3</v>
-      </c>
-      <c r="H30" s="5"/>
+        <v>427.3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.9</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5">
-        <v>76.7</v>
+        <v>3.68</v>
       </c>
       <c r="L30" s="5">
-        <v>15.3</v>
+        <v>2.9</v>
       </c>
       <c r="M30" s="5">
-        <v>14.8</v>
+        <v>0.81</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="P30" s="5">
-        <v>29.42</v>
+        <v>12.35</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="5">
-        <v>0.26</v>
-      </c>
+      <c r="S30" s="5"/>
       <c r="T30" s="5">
-        <v>0.214</v>
-      </c>
-      <c r="U30" s="5">
-        <v>0.126</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="U30" s="5"/>
       <c r="V30" s="5">
-        <v>0.73</v>
+        <v>0.3</v>
       </c>
       <c r="W30" s="5">
-        <v>2.21</v>
-      </c>
-      <c r="X30" s="5">
-        <v>0.64</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
@@ -4085,98 +4064,52 @@
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
       <c r="AN30" s="5">
-        <v>14</v>
-      </c>
-      <c r="AO30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="5">
-        <v>2</v>
-      </c>
-      <c r="AQ30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="5">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
       <c r="AS30" s="5">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="AT30" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" s="5">
-        <v>25</v>
-      </c>
-      <c r="AV30" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="5">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="5">
-        <v>42.493700999701453</v>
-      </c>
-      <c r="C31" s="5">
-        <v>43.221845000246617</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="5">
-        <v>4.95</v>
-      </c>
-      <c r="F31" s="5">
-        <v>79.08</v>
-      </c>
-      <c r="G31" s="5">
-        <v>402.15</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="L31" s="5">
-        <v>10.75</v>
-      </c>
-      <c r="M31" s="5">
-        <v>1.83</v>
-      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="P31" s="5">
-        <v>20.3</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>0.45</v>
-      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="5">
-        <v>0.38</v>
-      </c>
+      <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="W31" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="X31" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="Y31" s="5">
-        <v>0.85</v>
-      </c>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
@@ -4190,101 +4123,45 @@
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
-      <c r="AN31" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="5">
-        <v>64</v>
-      </c>
-      <c r="AT31" s="5">
-        <v>11</v>
-      </c>
-      <c r="AU31" s="5">
-        <v>14</v>
-      </c>
-      <c r="AV31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="5">
-        <v>0</v>
-      </c>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="5">
-        <v>42.493700999701453</v>
-      </c>
-      <c r="C32" s="5">
-        <v>43.22253699978279</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F32" s="5">
-        <v>94.5</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="5">
-        <v>82.7</v>
-      </c>
-      <c r="L32" s="5">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M32" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="O32" s="5">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P32" s="5">
-        <v>52.9</v>
-      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="5">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="T32" s="5">
-        <v>0.33</v>
-      </c>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="5">
-        <v>0.53</v>
-      </c>
-      <c r="W32" s="5">
-        <v>2.97</v>
-      </c>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="5">
-        <v>0.77</v>
-      </c>
+      <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -4296,109 +4173,47 @@
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
-      <c r="AN32" s="5">
-        <v>12</v>
-      </c>
-      <c r="AO32" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP32" s="5">
-        <v>4</v>
-      </c>
-      <c r="AQ32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="5">
-        <v>59</v>
-      </c>
-      <c r="AT32" s="5">
-        <v>6</v>
-      </c>
-      <c r="AU32" s="5">
-        <v>17</v>
-      </c>
-      <c r="AV32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="5">
-        <v>0</v>
-      </c>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="5">
-        <v>42.493627999932301</v>
-      </c>
-      <c r="C33" s="5">
-        <v>43.223115000357041</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1.93</v>
-      </c>
-      <c r="F33" s="5">
-        <v>50.22</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="5">
-        <v>28.15</v>
-      </c>
-      <c r="L33" s="5">
-        <v>13.12</v>
-      </c>
-      <c r="M33" s="5">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="O33" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="P33" s="5">
-        <v>25.28</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="R33" s="5">
-        <v>0.13400000000000001</v>
-      </c>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5">
-        <v>0.23</v>
-      </c>
+      <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="W33" s="5">
-        <v>1.43</v>
-      </c>
-      <c r="X33" s="5">
-        <v>0.92</v>
-      </c>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="5">
-        <v>0.74</v>
-      </c>
+      <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="5">
-        <v>1.06</v>
-      </c>
+      <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -4408,101 +4223,41 @@
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
-      <c r="AN33" s="5">
-        <v>13</v>
-      </c>
-      <c r="AO33" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP33" s="5">
-        <v>5</v>
-      </c>
-      <c r="AQ33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="5">
-        <v>59</v>
-      </c>
-      <c r="AT33" s="5">
-        <v>7</v>
-      </c>
-      <c r="AU33" s="5">
-        <v>14</v>
-      </c>
-      <c r="AV33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="5">
-        <v>0</v>
-      </c>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="5">
-        <v>42.493635000255097</v>
-      </c>
-      <c r="C34" s="5">
-        <v>43.223565999571292</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1.98</v>
-      </c>
-      <c r="F34" s="5">
-        <v>23.42</v>
-      </c>
-      <c r="G34" s="5">
-        <v>53.4</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="J34" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="K34" s="5">
-        <v>22.21</v>
-      </c>
-      <c r="L34" s="5">
-        <v>11.8</v>
-      </c>
-      <c r="M34" s="5">
-        <v>1.82</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="5">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="P34" s="5">
-        <v>4.6500000000000004</v>
-      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="5">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="S34" s="5">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="T34" s="5">
-        <v>0.27600000000000002</v>
-      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="5">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="W34" s="5">
-        <v>1.54</v>
-      </c>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
@@ -4518,106 +4273,46 @@
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
-      <c r="AN34" s="5">
-        <v>12</v>
-      </c>
-      <c r="AO34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="5">
-        <v>57</v>
-      </c>
-      <c r="AT34" s="5">
-        <v>13</v>
-      </c>
-      <c r="AU34" s="5">
-        <v>17</v>
-      </c>
-      <c r="AV34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="5">
-        <v>0</v>
-      </c>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="5">
-        <v>42.493559000347659</v>
-      </c>
-      <c r="C35" s="5">
-        <v>43.224146000237802</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="5">
-        <v>2.15</v>
-      </c>
-      <c r="F35" s="5">
-        <v>64.62</v>
-      </c>
-      <c r="G35" s="5">
-        <v>395.4</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5">
-        <v>127.5</v>
-      </c>
-      <c r="L35" s="5">
-        <v>10.88</v>
-      </c>
-      <c r="M35" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="O35" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="P35" s="5">
-        <v>22.6</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>0.48</v>
-      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="5">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="T35" s="5">
-        <v>0.19</v>
-      </c>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
       <c r="U35" s="5"/>
-      <c r="V35" s="5">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="W35" s="5">
-        <v>1.89</v>
-      </c>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="AB35" s="5">
-        <v>0.53100000000000003</v>
-      </c>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
@@ -4628,126 +4323,16 @@
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
-      <c r="AN35" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO35" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="5">
-        <v>54</v>
-      </c>
-      <c r="AT35" s="5">
-        <v>17</v>
-      </c>
-      <c r="AU35" s="5">
-        <v>19</v>
-      </c>
-      <c r="AV35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>29</v>
-      </c>
-      <c r="B36" s="5">
-        <v>42.489663</v>
-      </c>
-      <c r="C36" s="5">
-        <v>43.224527000000002</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5">
-        <v>5.03</v>
-      </c>
-      <c r="G36" s="5">
-        <v>427.3</v>
-      </c>
-      <c r="H36" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5">
-        <v>3.68</v>
-      </c>
-      <c r="L36" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="M36" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="P36" s="5">
-        <v>12.35</v>
-      </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="W36" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AN36" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="5">
-        <v>59</v>
-      </c>
-      <c r="AT36" s="5">
-        <v>13</v>
-      </c>
-      <c r="AU36" s="5">
-        <v>17</v>
-      </c>
-      <c r="AV36" s="5"/>
-      <c r="AW36" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
